--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999993172772685</v>
+        <v>0.9995338795734406</v>
       </c>
       <c r="E2">
-        <v>0.9999993172772685</v>
+        <v>0.9995338795734406</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9950704689248739</v>
+        <v>0.9998343273825507</v>
       </c>
       <c r="E3">
-        <v>0.9950704689248739</v>
+        <v>0.9998343273825507</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.456933967801433E-14</v>
+        <v>1.167657564129454E-05</v>
       </c>
       <c r="E4">
-        <v>2.456933967801433E-14</v>
+        <v>1.167657564129454E-05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.08278485974470674</v>
+        <v>0.137056723722291</v>
       </c>
       <c r="E5">
-        <v>0.08278485974470674</v>
+        <v>0.137056723722291</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9941271706009153</v>
+        <v>0.9164526429078863</v>
       </c>
       <c r="E6">
-        <v>0.9941271706009153</v>
+        <v>0.9164526429078863</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.999880556431066</v>
+        <v>0.9999971045984611</v>
       </c>
       <c r="E7">
-        <v>0.0001194435689340079</v>
+        <v>2.895401538860476E-06</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999408543324426</v>
+        <v>0.9999870893260018</v>
       </c>
       <c r="E8">
-        <v>5.914566755738093E-05</v>
+        <v>1.291067399822321E-05</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999999999735274</v>
+        <v>0.9999999998099465</v>
       </c>
       <c r="E9">
-        <v>2.647260188837208E-11</v>
+        <v>1.900535284704574E-10</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9143343216337013</v>
+        <v>0.9053378290234583</v>
       </c>
       <c r="E10">
-        <v>0.08566567836629868</v>
+        <v>0.09466217097654173</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999999990376705</v>
+        <v>0.999998564717348</v>
       </c>
       <c r="E11">
-        <v>9.623295493810247E-10</v>
+        <v>1.435282651951475E-06</v>
       </c>
       <c r="F11">
-        <v>2.482325792312622</v>
+        <v>1.910578966140747</v>
       </c>
       <c r="G11">
         <v>0.7</v>
